--- a/2020_dengue_extracted.xlsx
+++ b/2020_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/Bioinfo/Klimaprojekt/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{A8487980-2287-4741-9572-50198F34E876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A18EF09-E259-495A-90BD-D31C88F5F7A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998724DF-3C40-DC4B-8FF2-C93CBA1A6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2862BE8D-BB3A-40AE-981D-33C6C4981966}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{2862BE8D-BB3A-40AE-981D-33C6C4981966}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -961,18 +961,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Reporting areas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Jan</t>
     </r>
   </si>
@@ -1107,6 +1095,9 @@
       </rPr>
       <t>Dec</t>
     </r>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
@@ -1199,9 +1190,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1211,9 +1199,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1229,7 +1220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1527,57 +1518,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6A83F-C17B-45CE-8557-3B146844F026}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1700,7 +1689,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1741,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1782,7 +1771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1823,7 +1812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1905,7 +1894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1946,7 +1935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +1976,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2028,7 +2017,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2069,7 +2058,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2110,7 +2099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2151,7 +2140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2192,7 +2181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +2222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2274,7 +2263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2315,7 +2304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2356,7 +2345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2438,7 +2427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2479,7 +2468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2520,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2561,7 +2550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2602,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2643,7 +2632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2684,7 +2673,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2725,7 +2714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2766,7 +2755,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2807,7 +2796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2848,7 +2837,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,7 +2878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2930,7 +2919,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2971,7 +2960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3012,7 +3001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3053,7 +3042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -3135,7 +3124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -3176,7 +3165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -3217,7 +3206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -3258,7 +3247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -3299,7 +3288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -3340,7 +3329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3381,7 +3370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -3422,7 +3411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -3463,7 +3452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -3504,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -3545,7 +3534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -3586,7 +3575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -3627,7 +3616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -3668,7 +3657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -3709,7 +3698,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -3750,7 +3739,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -3791,7 +3780,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -3832,7 +3821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -3873,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -3914,7 +3903,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -3955,7 +3944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -3996,7 +3985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -4037,7 +4026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -4078,7 +4067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -4119,7 +4108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -4160,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -4201,7 +4190,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -4242,7 +4231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -4283,7 +4272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -4324,7 +4313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -4365,7 +4354,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -4406,7 +4395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -4447,7 +4436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -4488,7 +4477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -4529,7 +4518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -4570,7 +4559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -4611,7 +4600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -4652,7 +4641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -4693,7 +4682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>

--- a/2020_dengue_extracted.xlsx
+++ b/2020_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998724DF-3C40-DC4B-8FF2-C93CBA1A6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{998724DF-3C40-DC4B-8FF2-C93CBA1A6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F8F48B5-3AFB-43C5-9A35-DB2921F825EF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{2862BE8D-BB3A-40AE-981D-33C6C4981966}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2862BE8D-BB3A-40AE-981D-33C6C4981966}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1021,8 +1021,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Jun</t>
-    </r>
+      <t>Aug</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oct</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nov</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dec</t>
+    </r>
+  </si>
+  <si>
+    <t>Reporting areas</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
   <si>
     <r>
@@ -1035,17 +1077,14 @@
       </rPr>
       <t>Jul</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aug</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
     </r>
   </si>
   <si>
@@ -1059,45 +1098,15 @@
       </rPr>
       <t>Sep</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Oct</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dec</t>
-    </r>
-  </si>
-  <si>
-    <t>Reporting_areas</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1179,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1202,9 +1211,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1220,7 +1232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1518,16 +1530,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6A83F-C17B-45CE-8557-3B146844F026}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>77</v>
@@ -1544,29 +1558,29 @@
       <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1607,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1689,7 +1703,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1730,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +1785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1812,7 +1826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +1867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1894,7 +1908,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1935,7 +1949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1976,7 +1990,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2017,7 +2031,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2058,7 +2072,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2099,7 +2113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2140,7 +2154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2181,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2222,7 +2236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2263,7 +2277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2304,7 +2318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2345,7 +2359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2386,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2427,7 +2441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2468,7 +2482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2509,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2550,7 +2564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2591,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2632,7 +2646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2673,7 +2687,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2714,7 +2728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2755,7 +2769,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2796,7 +2810,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2837,7 +2851,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2878,7 +2892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,7 +2933,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2960,7 +2974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3001,7 +3015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3042,7 +3056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -3124,7 +3138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -3165,7 +3179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -3206,7 +3220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -3247,7 +3261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -3288,7 +3302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -3329,7 +3343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3370,7 +3384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,7 +3425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -3452,7 +3466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -3493,7 +3507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -3534,7 +3548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -3575,7 +3589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -3616,7 +3630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -3657,7 +3671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -3698,7 +3712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -3739,7 +3753,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,7 +3794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -3821,7 +3835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -3862,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -3903,7 +3917,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -3944,7 +3958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -3985,7 +3999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -4026,7 +4040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -4067,7 +4081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -4108,7 +4122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -4149,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -4190,7 +4204,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -4231,7 +4245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -4272,7 +4286,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -4313,7 +4327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -4354,7 +4368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -4395,7 +4409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -4436,7 +4450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -4477,7 +4491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -4518,7 +4532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -4559,7 +4573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -4600,7 +4614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -4641,7 +4655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -4682,7 +4696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>

--- a/2020_dengue_extracted.xlsx
+++ b/2020_dengue_extracted.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{998724DF-3C40-DC4B-8FF2-C93CBA1A6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F8F48B5-3AFB-43C5-9A35-DB2921F825EF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2862BE8D-BB3A-40AE-981D-33C6C4981966}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1061,58 +1060,22 @@
     </r>
   </si>
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Jul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sep</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
+    <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1205,18 +1168,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1527,20 +1490,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6A83F-C17B-45CE-8557-3B146844F026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1558,16 +1521,16 @@
       <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>88</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>89</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1580,7 +1543,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1662,7 +1625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1703,7 +1666,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +1748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +1830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1949,7 +1912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1990,7 +1953,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2031,7 +1994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2072,7 +2035,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2113,7 +2076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2154,7 +2117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2195,7 +2158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2236,7 +2199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2277,7 +2240,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2318,7 +2281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2359,7 +2322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2400,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2441,7 +2404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="18.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +2445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2523,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="18.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2564,7 +2527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="18.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2605,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2646,7 +2609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2687,7 +2650,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2728,7 +2691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2769,7 +2732,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2810,7 +2773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2851,7 +2814,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,7 +2855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2933,7 +2896,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2974,7 +2937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3015,7 +2978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,7 +3019,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +3060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -3138,7 +3101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -3179,7 +3142,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -3220,7 +3183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -3261,7 +3224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -3302,7 +3265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -3343,7 +3306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3384,7 +3347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -3425,7 +3388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -3466,7 +3429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -3507,7 +3470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -3548,7 +3511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -3589,7 +3552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -3630,7 +3593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -3671,7 +3634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -3712,7 +3675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -3753,7 +3716,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,7 +3757,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -3835,7 +3798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -3876,7 +3839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -3917,7 +3880,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -3958,7 +3921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -3999,7 +3962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -4040,7 +4003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -4081,7 +4044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -4122,7 +4085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -4163,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -4204,7 +4167,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -4245,7 +4208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -4286,7 +4249,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -4327,7 +4290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -4368,7 +4331,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -4409,7 +4372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -4450,7 +4413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -4491,7 +4454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -4532,7 +4495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -4573,7 +4536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -4614,7 +4577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -4655,7 +4618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -4696,7 +4659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -4738,7 +4701,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
+  <sortState ref="A2:M78">
     <sortCondition ref="A2:A78"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
